--- a/techniqo/data_new_ticker/AEGISCHEM.xlsx
+++ b/techniqo/data_new_ticker/AEGISCHEM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1411"/>
+  <dimension ref="A1:G1413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49771,6 +49771,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>247.45</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>1034345</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>249</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>259</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>246.2</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>258.15</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>569042</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/AEGISCHEM.xlsx
+++ b/techniqo/data_new_ticker/AEGISCHEM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1413"/>
+  <dimension ref="A1:G1415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49821,6 +49821,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>254</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>256.6</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>431754</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>245</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>235.1</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>816332</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
